--- a/data/league_data/france/20/france_possession.xlsx
+++ b/data/league_data/france/20/france_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3ADA4-1258-BA45-8655-76A4D520A6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852163E1-BD02-ED4F-8E65-65964A5797DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,9 +1309,6 @@
     <t>Xeka</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Anthony Caci</t>
   </si>
   <si>
@@ -1853,6 +1850,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2722,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19002,7 +19002,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>53</v>
@@ -33698,7 +33698,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>429</v>
+        <v>610</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>53</v>
@@ -33796,7 +33796,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>35</v>
@@ -33894,7 +33894,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>390</v>
@@ -33992,10 +33992,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>141</v>
@@ -34090,7 +34090,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>70</v>
@@ -34188,7 +34188,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>35</v>
@@ -34286,7 +34286,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>70</v>
@@ -34382,7 +34382,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>35</v>
@@ -34480,7 +34480,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>35</v>
@@ -34578,7 +34578,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>84</v>
@@ -34676,7 +34676,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>173</v>
@@ -34774,7 +34774,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>35</v>
@@ -34872,7 +34872,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>106</v>
@@ -34970,7 +34970,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>50</v>
@@ -35068,7 +35068,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>94</v>
@@ -35166,7 +35166,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>125</v>
@@ -35264,7 +35264,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>35</v>
@@ -35362,7 +35362,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>252</v>
@@ -35558,7 +35558,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>106</v>
@@ -35656,7 +35656,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>400</v>
@@ -35754,7 +35754,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>206</v>
@@ -35852,7 +35852,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>228</v>
@@ -35950,7 +35950,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>35</v>
@@ -36048,7 +36048,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>35</v>
@@ -36146,7 +36146,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>35</v>
@@ -36244,7 +36244,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>35</v>
@@ -36342,7 +36342,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>66</v>
@@ -36440,7 +36440,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>35</v>
@@ -36538,7 +36538,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>94</v>
@@ -36636,7 +36636,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>35</v>
@@ -36832,7 +36832,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>35</v>
@@ -36930,7 +36930,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>235</v>
@@ -37028,7 +37028,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>31</v>
@@ -37126,7 +37126,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>157</v>
@@ -37224,7 +37224,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>157</v>
@@ -37322,7 +37322,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>166</v>
@@ -37420,7 +37420,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>161</v>
@@ -37518,7 +37518,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>176</v>
@@ -37616,7 +37616,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>70</v>
@@ -37714,7 +37714,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>418</v>
@@ -37812,7 +37812,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>157</v>
@@ -37910,7 +37910,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>35</v>
@@ -38008,7 +38008,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>35</v>
@@ -38106,7 +38106,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>166</v>
@@ -38204,7 +38204,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>76</v>
@@ -38302,10 +38302,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C364" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>96</v>
@@ -38400,7 +38400,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>390</v>
@@ -38498,7 +38498,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>35</v>
@@ -38596,7 +38596,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>235</v>
@@ -38694,7 +38694,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>53</v>
@@ -38792,7 +38792,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>35</v>
@@ -38890,7 +38890,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>70</v>
@@ -38988,7 +38988,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>94</v>
@@ -39086,7 +39086,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>35</v>
@@ -39184,7 +39184,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>166</v>
@@ -39282,7 +39282,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>35</v>
@@ -39378,7 +39378,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>35</v>
@@ -39476,10 +39476,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C376" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>91</v>
@@ -39574,7 +39574,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>35</v>
@@ -39672,10 +39672,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C378" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>96</v>
@@ -39770,7 +39770,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>35</v>
@@ -39868,7 +39868,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>35</v>
@@ -39966,7 +39966,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>35</v>
@@ -40064,7 +40064,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>35</v>
@@ -40162,7 +40162,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>35</v>
@@ -40260,7 +40260,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>125</v>
@@ -40358,7 +40358,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>106</v>
@@ -40456,7 +40456,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>35</v>
@@ -40554,7 +40554,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>35</v>
@@ -40650,7 +40650,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>273</v>
@@ -40748,7 +40748,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>35</v>
@@ -40846,10 +40846,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>121</v>
@@ -40942,7 +40942,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>35</v>
@@ -41038,7 +41038,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>35</v>
@@ -41136,7 +41136,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>179</v>
@@ -41232,7 +41232,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>76</v>
@@ -41330,7 +41330,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>62</v>
@@ -41428,7 +41428,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>35</v>
@@ -41524,7 +41524,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>35</v>
@@ -41622,7 +41622,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>280</v>
@@ -41720,7 +41720,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>35</v>
@@ -41816,7 +41816,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>53</v>
@@ -41914,7 +41914,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>53</v>
@@ -42012,7 +42012,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>35</v>
@@ -42206,7 +42206,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>35</v>
@@ -42304,7 +42304,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>237</v>
@@ -42402,7 +42402,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>35</v>
@@ -42500,10 +42500,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C407" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>91</v>
@@ -42598,7 +42598,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>35</v>
@@ -42696,7 +42696,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>53</v>
@@ -42794,7 +42794,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>35</v>
@@ -42892,7 +42892,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>35</v>
@@ -42990,7 +42990,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>53</v>
@@ -43088,7 +43088,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>53</v>
@@ -43186,7 +43186,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>35</v>
@@ -43284,7 +43284,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>106</v>
@@ -43382,7 +43382,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>53</v>
@@ -43478,7 +43478,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>35</v>
@@ -43576,7 +43576,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>235</v>
@@ -43674,7 +43674,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>273</v>
@@ -43770,7 +43770,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>35</v>
@@ -43868,7 +43868,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>35</v>
@@ -43964,7 +43964,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>400</v>
@@ -44060,10 +44060,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>38</v>
@@ -44156,7 +44156,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>235</v>
@@ -44254,10 +44254,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C425" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>38</v>
@@ -44448,7 +44448,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>76</v>
@@ -44546,7 +44546,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>35</v>
@@ -44644,7 +44644,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>35</v>
@@ -44740,7 +44740,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>106</v>
@@ -44838,7 +44838,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>182</v>
@@ -44936,7 +44936,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>50</v>
@@ -45034,7 +45034,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>90</v>
@@ -45132,7 +45132,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>35</v>
@@ -45230,7 +45230,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>62</v>
@@ -45328,7 +45328,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>35</v>
@@ -45424,7 +45424,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>35</v>
@@ -45522,7 +45522,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>35</v>
@@ -45620,7 +45620,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>359</v>
@@ -45718,7 +45718,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>106</v>
@@ -45816,7 +45816,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>35</v>
@@ -45914,7 +45914,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>35</v>
@@ -46012,7 +46012,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>35</v>
@@ -46110,7 +46110,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>35</v>
@@ -46208,7 +46208,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>35</v>
@@ -46304,7 +46304,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>341</v>
@@ -46402,7 +46402,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>53</v>
@@ -46500,7 +46500,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>410</v>
@@ -46596,10 +46596,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C449" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="C449" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>91</v>
@@ -46694,7 +46694,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>35</v>
@@ -46792,7 +46792,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>106</v>
@@ -46890,7 +46890,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>237</v>
@@ -46988,7 +46988,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>35</v>
@@ -47084,7 +47084,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>35</v>
@@ -47182,7 +47182,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>35</v>
@@ -47280,7 +47280,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>94</v>
@@ -47378,7 +47378,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>341</v>
@@ -47476,7 +47476,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>288</v>
@@ -47572,7 +47572,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>66</v>
@@ -47670,7 +47670,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>35</v>
@@ -47768,7 +47768,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>35</v>
@@ -47864,7 +47864,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>35</v>
@@ -47962,7 +47962,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>35</v>
@@ -48058,7 +48058,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>284</v>
@@ -48156,7 +48156,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>35</v>
@@ -48254,7 +48254,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>132</v>
@@ -48350,7 +48350,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>35</v>
@@ -48446,7 +48446,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>94</v>
@@ -48544,7 +48544,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>35</v>
@@ -48640,10 +48640,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>32</v>
@@ -48736,7 +48736,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>66</v>
@@ -48832,7 +48832,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>35</v>
@@ -48930,7 +48930,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>35</v>
@@ -49028,7 +49028,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>35</v>
@@ -49124,7 +49124,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>84</v>
@@ -49222,7 +49222,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>62</v>
@@ -49320,7 +49320,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>166</v>
@@ -49416,7 +49416,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>418</v>
@@ -49612,10 +49612,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>56</v>
@@ -49710,7 +49710,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>84</v>
@@ -49806,7 +49806,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>35</v>
@@ -49904,7 +49904,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>35</v>
@@ -50002,7 +50002,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>35</v>
@@ -50100,7 +50100,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>35</v>
@@ -50198,7 +50198,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>187</v>
@@ -50294,7 +50294,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>106</v>
@@ -50392,7 +50392,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>359</v>
@@ -50490,7 +50490,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>35</v>
@@ -50588,7 +50588,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>400</v>
@@ -50784,7 +50784,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>94</v>
@@ -50880,7 +50880,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>80</v>
@@ -50978,7 +50978,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>35</v>
@@ -51076,7 +51076,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>166</v>
@@ -51126,7 +51126,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>35</v>
@@ -51224,7 +51224,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>35</v>
@@ -51322,7 +51322,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>35</v>
@@ -51418,7 +51418,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>35</v>
@@ -51514,7 +51514,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>228</v>
